--- a/documentation/FinalGanttTOM.xlsx
+++ b/documentation/FinalGanttTOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
@@ -705,15 +705,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -854,6 +845,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1419,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:HC190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1439,777 +1439,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:211" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="37">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="34">
         <v>1</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="39">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="36">
         <v>2</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="40">
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="37">
         <v>3</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="41">
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="38">
         <v>4</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:211" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="10">
         <v>1</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="50" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="50" t="s">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="43" t="s">
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="43" t="s">
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
     </row>
-    <row r="3" spans="1:211" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="45" t="s">
+    <row r="3" spans="1:211" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="1:211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="46"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="36">
+      <c r="F4" s="43"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="33">
         <v>1</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="33">
         <v>2</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="33">
         <v>3</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="33">
         <v>4</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="33">
         <v>5</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="33">
         <v>6</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="33">
         <v>7</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="33">
         <v>8</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="33">
         <v>9</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="33">
         <v>10</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="33">
         <v>11</v>
       </c>
-      <c r="W4" s="36">
+      <c r="W4" s="33">
         <v>12</v>
       </c>
-      <c r="X4" s="36">
+      <c r="X4" s="33">
         <v>13</v>
       </c>
-      <c r="Y4" s="36">
+      <c r="Y4" s="33">
         <v>14</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="Z4" s="33">
         <v>15</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="AA4" s="33">
         <v>16</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AB4" s="33">
         <v>17</v>
       </c>
-      <c r="AC4" s="36">
+      <c r="AC4" s="33">
         <v>18</v>
       </c>
-      <c r="AD4" s="36">
+      <c r="AD4" s="33">
         <v>19</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AE4" s="33">
         <v>20</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AF4" s="33">
         <v>21</v>
       </c>
-      <c r="AG4" s="36">
+      <c r="AG4" s="33">
         <v>22</v>
       </c>
-      <c r="AH4" s="36">
+      <c r="AH4" s="33">
         <v>23</v>
       </c>
-      <c r="AI4" s="36">
+      <c r="AI4" s="33">
         <v>24</v>
       </c>
-      <c r="AJ4" s="36">
+      <c r="AJ4" s="33">
         <v>25</v>
       </c>
-      <c r="AK4" s="36">
+      <c r="AK4" s="33">
         <v>26</v>
       </c>
-      <c r="AL4" s="36">
+      <c r="AL4" s="33">
         <v>27</v>
       </c>
-      <c r="AM4" s="36">
+      <c r="AM4" s="33">
         <v>28</v>
       </c>
-      <c r="AN4" s="36">
+      <c r="AN4" s="33">
         <v>29</v>
       </c>
-      <c r="AO4" s="36">
+      <c r="AO4" s="33">
         <v>30</v>
       </c>
-      <c r="AP4" s="36">
+      <c r="AP4" s="33">
         <v>31</v>
       </c>
-      <c r="AQ4" s="36">
+      <c r="AQ4" s="33">
         <v>32</v>
       </c>
-      <c r="AR4" s="36">
+      <c r="AR4" s="33">
         <v>33</v>
       </c>
-      <c r="AS4" s="36">
+      <c r="AS4" s="33">
         <v>34</v>
       </c>
-      <c r="AT4" s="36">
+      <c r="AT4" s="33">
         <v>35</v>
       </c>
-      <c r="AU4" s="36">
+      <c r="AU4" s="33">
         <v>36</v>
       </c>
-      <c r="AV4" s="36">
+      <c r="AV4" s="33">
         <v>37</v>
       </c>
-      <c r="AW4" s="36">
+      <c r="AW4" s="33">
         <v>38</v>
       </c>
-      <c r="AX4" s="36">
+      <c r="AX4" s="33">
         <v>39</v>
       </c>
-      <c r="AY4" s="36">
+      <c r="AY4" s="33">
         <v>40</v>
       </c>
-      <c r="AZ4" s="36">
+      <c r="AZ4" s="33">
         <v>41</v>
       </c>
-      <c r="BA4" s="36">
+      <c r="BA4" s="33">
         <v>42</v>
       </c>
-      <c r="BB4" s="36">
+      <c r="BB4" s="33">
         <v>43</v>
       </c>
-      <c r="BC4" s="36">
+      <c r="BC4" s="33">
         <v>44</v>
       </c>
-      <c r="BD4" s="36">
+      <c r="BD4" s="33">
         <v>45</v>
       </c>
-      <c r="BE4" s="36">
+      <c r="BE4" s="33">
         <v>46</v>
       </c>
-      <c r="BF4" s="36">
+      <c r="BF4" s="33">
         <v>47</v>
       </c>
-      <c r="BG4" s="36">
+      <c r="BG4" s="33">
         <v>48</v>
       </c>
-      <c r="BH4" s="36">
+      <c r="BH4" s="33">
         <v>49</v>
       </c>
-      <c r="BI4" s="36">
+      <c r="BI4" s="33">
         <v>50</v>
       </c>
-      <c r="BJ4" s="36">
+      <c r="BJ4" s="33">
         <v>51</v>
       </c>
-      <c r="BK4" s="36">
+      <c r="BK4" s="33">
         <v>52</v>
       </c>
-      <c r="BL4" s="36">
+      <c r="BL4" s="33">
         <v>53</v>
       </c>
-      <c r="BM4" s="36">
+      <c r="BM4" s="33">
         <v>54</v>
       </c>
-      <c r="BN4" s="36">
+      <c r="BN4" s="33">
         <v>55</v>
       </c>
-      <c r="BO4" s="36">
+      <c r="BO4" s="33">
         <v>56</v>
       </c>
-      <c r="BP4" s="36">
+      <c r="BP4" s="33">
         <v>57</v>
       </c>
-      <c r="BQ4" s="36">
+      <c r="BQ4" s="33">
         <v>58</v>
       </c>
-      <c r="BR4" s="36">
+      <c r="BR4" s="33">
         <v>59</v>
       </c>
-      <c r="BS4" s="36">
+      <c r="BS4" s="33">
         <v>60</v>
       </c>
-      <c r="BT4" s="36">
+      <c r="BT4" s="33">
         <v>61</v>
       </c>
-      <c r="BU4" s="36">
+      <c r="BU4" s="33">
         <v>62</v>
       </c>
-      <c r="BV4" s="36">
+      <c r="BV4" s="33">
         <v>63</v>
       </c>
-      <c r="BW4" s="36">
+      <c r="BW4" s="33">
         <v>64</v>
       </c>
-      <c r="BX4" s="36">
+      <c r="BX4" s="33">
         <v>65</v>
       </c>
-      <c r="BY4" s="36">
+      <c r="BY4" s="33">
         <v>66</v>
       </c>
-      <c r="BZ4" s="36">
+      <c r="BZ4" s="33">
         <v>67</v>
       </c>
-      <c r="CA4" s="36">
+      <c r="CA4" s="33">
         <v>68</v>
       </c>
-      <c r="CB4" s="36">
+      <c r="CB4" s="33">
         <v>69</v>
       </c>
-      <c r="CC4" s="36">
+      <c r="CC4" s="33">
         <v>70</v>
       </c>
-      <c r="CD4" s="36">
+      <c r="CD4" s="33">
         <v>71</v>
       </c>
-      <c r="CE4" s="36">
+      <c r="CE4" s="33">
         <v>72</v>
       </c>
-      <c r="CF4" s="36">
+      <c r="CF4" s="33">
         <v>73</v>
       </c>
-      <c r="CG4" s="36">
+      <c r="CG4" s="33">
         <v>74</v>
       </c>
-      <c r="CH4" s="36">
+      <c r="CH4" s="33">
         <v>75</v>
       </c>
-      <c r="CI4" s="36">
+      <c r="CI4" s="33">
         <v>76</v>
       </c>
-      <c r="CJ4" s="36">
+      <c r="CJ4" s="33">
         <v>77</v>
       </c>
-      <c r="CK4" s="36">
+      <c r="CK4" s="33">
         <v>78</v>
       </c>
-      <c r="CL4" s="36">
+      <c r="CL4" s="33">
         <v>79</v>
       </c>
-      <c r="CM4" s="36">
+      <c r="CM4" s="33">
         <v>80</v>
       </c>
-      <c r="CN4" s="36">
+      <c r="CN4" s="33">
         <v>81</v>
       </c>
-      <c r="CO4" s="36">
+      <c r="CO4" s="33">
         <v>82</v>
       </c>
-      <c r="CP4" s="36">
+      <c r="CP4" s="33">
         <v>83</v>
       </c>
-      <c r="CQ4" s="36">
+      <c r="CQ4" s="33">
         <v>84</v>
       </c>
-      <c r="CR4" s="36">
+      <c r="CR4" s="33">
         <v>85</v>
       </c>
-      <c r="CS4" s="36">
+      <c r="CS4" s="33">
         <v>86</v>
       </c>
-      <c r="CT4" s="36">
+      <c r="CT4" s="33">
         <v>87</v>
       </c>
-      <c r="CU4" s="36">
+      <c r="CU4" s="33">
         <v>88</v>
       </c>
-      <c r="CV4" s="36">
+      <c r="CV4" s="33">
         <v>89</v>
       </c>
-      <c r="CW4" s="36">
+      <c r="CW4" s="33">
         <v>90</v>
       </c>
-      <c r="CX4" s="36">
+      <c r="CX4" s="33">
         <v>91</v>
       </c>
-      <c r="CY4" s="36">
+      <c r="CY4" s="33">
         <v>92</v>
       </c>
-      <c r="CZ4" s="36">
+      <c r="CZ4" s="33">
         <v>93</v>
       </c>
-      <c r="DA4" s="36">
+      <c r="DA4" s="33">
         <v>94</v>
       </c>
-      <c r="DB4" s="36">
+      <c r="DB4" s="33">
         <v>95</v>
       </c>
-      <c r="DC4" s="36">
+      <c r="DC4" s="33">
         <v>96</v>
       </c>
-      <c r="DD4" s="36">
+      <c r="DD4" s="33">
         <v>97</v>
       </c>
-      <c r="DE4" s="36">
+      <c r="DE4" s="33">
         <v>98</v>
       </c>
-      <c r="DF4" s="36">
+      <c r="DF4" s="33">
         <v>99</v>
       </c>
-      <c r="DG4" s="36">
+      <c r="DG4" s="33">
         <v>100</v>
       </c>
-      <c r="DH4" s="36">
+      <c r="DH4" s="33">
         <v>101</v>
       </c>
-      <c r="DI4" s="36">
+      <c r="DI4" s="33">
         <v>102</v>
       </c>
-      <c r="DJ4" s="36">
+      <c r="DJ4" s="33">
         <v>103</v>
       </c>
-      <c r="DK4" s="36">
+      <c r="DK4" s="33">
         <v>104</v>
       </c>
-      <c r="DL4" s="36">
+      <c r="DL4" s="33">
         <v>105</v>
       </c>
-      <c r="DM4" s="36">
+      <c r="DM4" s="33">
         <v>106</v>
       </c>
-      <c r="DN4" s="36">
+      <c r="DN4" s="33">
         <v>107</v>
       </c>
-      <c r="DO4" s="36">
+      <c r="DO4" s="33">
         <v>108</v>
       </c>
-      <c r="DP4" s="36">
+      <c r="DP4" s="33">
         <v>109</v>
       </c>
-      <c r="DQ4" s="36">
+      <c r="DQ4" s="33">
         <v>110</v>
       </c>
-      <c r="DR4" s="36">
+      <c r="DR4" s="33">
         <v>111</v>
       </c>
-      <c r="DS4" s="36">
+      <c r="DS4" s="33">
         <v>112</v>
       </c>
-      <c r="DT4" s="36">
+      <c r="DT4" s="33">
         <v>113</v>
       </c>
-      <c r="DU4" s="36">
+      <c r="DU4" s="33">
         <v>114</v>
       </c>
-      <c r="DV4" s="36">
+      <c r="DV4" s="33">
         <v>115</v>
       </c>
-      <c r="DW4" s="36">
+      <c r="DW4" s="33">
         <v>116</v>
       </c>
-      <c r="DX4" s="36">
+      <c r="DX4" s="33">
         <v>117</v>
       </c>
-      <c r="DY4" s="36">
+      <c r="DY4" s="33">
         <v>118</v>
       </c>
-      <c r="DZ4" s="36">
+      <c r="DZ4" s="33">
         <v>119</v>
       </c>
-      <c r="EA4" s="36">
+      <c r="EA4" s="33">
         <v>120</v>
       </c>
-      <c r="EB4" s="36">
+      <c r="EB4" s="33">
         <v>121</v>
       </c>
-      <c r="EC4" s="36">
+      <c r="EC4" s="33">
         <v>122</v>
       </c>
-      <c r="ED4" s="36">
+      <c r="ED4" s="33">
         <v>123</v>
       </c>
-      <c r="EE4" s="36">
+      <c r="EE4" s="33">
         <v>124</v>
       </c>
-      <c r="EF4" s="36">
+      <c r="EF4" s="33">
         <v>125</v>
       </c>
-      <c r="EG4" s="36">
+      <c r="EG4" s="33">
         <v>126</v>
       </c>
-      <c r="EH4" s="36">
+      <c r="EH4" s="33">
         <v>127</v>
       </c>
-      <c r="EI4" s="36">
+      <c r="EI4" s="33">
         <v>128</v>
       </c>
-      <c r="EJ4" s="36">
+      <c r="EJ4" s="33">
         <v>129</v>
       </c>
-      <c r="EK4" s="36">
+      <c r="EK4" s="33">
         <v>130</v>
       </c>
-      <c r="EL4" s="36">
+      <c r="EL4" s="33">
         <v>131</v>
       </c>
-      <c r="EM4" s="36">
+      <c r="EM4" s="33">
         <v>132</v>
       </c>
-      <c r="EN4" s="36">
+      <c r="EN4" s="33">
         <v>133</v>
       </c>
-      <c r="EO4" s="36">
+      <c r="EO4" s="33">
         <v>134</v>
       </c>
-      <c r="EP4" s="36">
+      <c r="EP4" s="33">
         <v>135</v>
       </c>
-      <c r="EQ4" s="36">
+      <c r="EQ4" s="33">
         <v>136</v>
       </c>
-      <c r="ER4" s="36">
+      <c r="ER4" s="33">
         <v>137</v>
       </c>
-      <c r="ES4" s="36">
+      <c r="ES4" s="33">
         <v>138</v>
       </c>
-      <c r="ET4" s="36">
+      <c r="ET4" s="33">
         <v>139</v>
       </c>
-      <c r="EU4" s="36">
+      <c r="EU4" s="33">
         <v>140</v>
       </c>
-      <c r="EV4" s="36">
+      <c r="EV4" s="33">
         <v>141</v>
       </c>
-      <c r="EW4" s="36">
+      <c r="EW4" s="33">
         <v>142</v>
       </c>
-      <c r="EX4" s="36">
+      <c r="EX4" s="33">
         <v>143</v>
       </c>
-      <c r="EY4" s="36">
+      <c r="EY4" s="33">
         <v>144</v>
       </c>
-      <c r="EZ4" s="36">
+      <c r="EZ4" s="33">
         <v>145</v>
       </c>
-      <c r="FA4" s="36">
+      <c r="FA4" s="33">
         <v>146</v>
       </c>
-      <c r="FB4" s="36">
+      <c r="FB4" s="33">
         <v>147</v>
       </c>
-      <c r="FC4" s="36">
+      <c r="FC4" s="33">
         <v>148</v>
       </c>
-      <c r="FD4" s="36">
+      <c r="FD4" s="33">
         <v>149</v>
       </c>
-      <c r="FE4" s="36">
+      <c r="FE4" s="33">
         <v>150</v>
       </c>
-      <c r="FF4" s="36">
+      <c r="FF4" s="33">
         <v>151</v>
       </c>
-      <c r="FG4" s="36">
+      <c r="FG4" s="33">
         <v>152</v>
       </c>
-      <c r="FH4" s="36">
+      <c r="FH4" s="33">
         <v>153</v>
       </c>
-      <c r="FI4" s="36">
+      <c r="FI4" s="33">
         <v>154</v>
       </c>
-      <c r="FJ4" s="36">
+      <c r="FJ4" s="33">
         <v>155</v>
       </c>
-      <c r="FK4" s="36">
+      <c r="FK4" s="33">
         <v>156</v>
       </c>
-      <c r="FL4" s="36">
+      <c r="FL4" s="33">
         <v>157</v>
       </c>
-      <c r="FM4" s="36">
+      <c r="FM4" s="33">
         <v>158</v>
       </c>
-      <c r="FN4" s="36">
+      <c r="FN4" s="33">
         <v>159</v>
       </c>
-      <c r="FO4" s="36">
+      <c r="FO4" s="33">
         <v>160</v>
       </c>
-      <c r="FP4" s="36">
+      <c r="FP4" s="33">
         <v>161</v>
       </c>
-      <c r="FQ4" s="36">
+      <c r="FQ4" s="33">
         <v>162</v>
       </c>
-      <c r="FR4" s="36">
+      <c r="FR4" s="33">
         <v>163</v>
       </c>
-      <c r="FS4" s="36">
+      <c r="FS4" s="33">
         <v>164</v>
       </c>
-      <c r="FT4" s="36">
+      <c r="FT4" s="33">
         <v>165</v>
       </c>
-      <c r="FU4" s="36">
+      <c r="FU4" s="33">
         <v>166</v>
       </c>
-      <c r="FV4" s="36">
+      <c r="FV4" s="33">
         <v>167</v>
       </c>
-      <c r="FW4" s="36">
+      <c r="FW4" s="33">
         <v>168</v>
       </c>
-      <c r="FX4" s="36">
+      <c r="FX4" s="33">
         <v>169</v>
       </c>
-      <c r="FY4" s="36">
+      <c r="FY4" s="33">
         <v>170</v>
       </c>
-      <c r="FZ4" s="36">
+      <c r="FZ4" s="33">
         <v>171</v>
       </c>
-      <c r="GA4" s="36">
+      <c r="GA4" s="33">
         <v>172</v>
       </c>
-      <c r="GB4" s="36">
+      <c r="GB4" s="33">
         <v>173</v>
       </c>
-      <c r="GC4" s="36">
+      <c r="GC4" s="33">
         <v>174</v>
       </c>
-      <c r="GD4" s="36">
+      <c r="GD4" s="33">
         <v>175</v>
       </c>
-      <c r="GE4" s="36">
+      <c r="GE4" s="33">
         <v>176</v>
       </c>
-      <c r="GF4" s="36">
+      <c r="GF4" s="33">
         <v>177</v>
       </c>
-      <c r="GG4" s="36">
+      <c r="GG4" s="33">
         <v>178</v>
       </c>
-      <c r="GH4" s="36">
+      <c r="GH4" s="33">
         <v>179</v>
       </c>
-      <c r="GI4" s="36">
+      <c r="GI4" s="33">
         <v>180</v>
       </c>
-      <c r="GJ4" s="36">
+      <c r="GJ4" s="33">
         <v>181</v>
       </c>
-      <c r="GK4" s="36">
+      <c r="GK4" s="33">
         <v>182</v>
       </c>
-      <c r="GL4" s="36">
+      <c r="GL4" s="33">
         <v>183</v>
       </c>
-      <c r="GM4" s="36">
+      <c r="GM4" s="33">
         <v>184</v>
       </c>
-      <c r="GN4" s="36">
+      <c r="GN4" s="33">
         <v>185</v>
       </c>
-      <c r="GO4" s="36">
+      <c r="GO4" s="33">
         <v>186</v>
       </c>
-      <c r="GP4" s="36">
+      <c r="GP4" s="33">
         <v>187</v>
       </c>
-      <c r="GQ4" s="36">
+      <c r="GQ4" s="33">
         <v>188</v>
       </c>
-      <c r="GR4" s="36">
+      <c r="GR4" s="33">
         <v>189</v>
       </c>
-      <c r="GS4" s="36">
+      <c r="GS4" s="33">
         <v>190</v>
       </c>
-      <c r="GT4" s="36">
+      <c r="GT4" s="33">
         <v>191</v>
       </c>
-      <c r="GU4" s="36">
+      <c r="GU4" s="33">
         <v>192</v>
       </c>
-      <c r="GV4" s="36">
+      <c r="GV4" s="33">
         <v>193</v>
       </c>
-      <c r="GW4" s="36">
+      <c r="GW4" s="33">
         <v>194</v>
       </c>
-      <c r="GX4" s="36">
+      <c r="GX4" s="33">
         <v>195</v>
       </c>
-      <c r="GY4" s="36">
+      <c r="GY4" s="33">
         <v>196</v>
       </c>
-      <c r="GZ4" s="36">
+      <c r="GZ4" s="33">
         <v>197</v>
       </c>
-      <c r="HA4" s="36">
+      <c r="HA4" s="33">
         <v>198</v>
       </c>
-      <c r="HB4" s="36">
+      <c r="HB4" s="33">
         <v>199</v>
       </c>
-      <c r="HC4" s="36">
+      <c r="HC4" s="33">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:211" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:211" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>3</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>4</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
       <c r="BV5" s="1"/>
@@ -2351,27 +2351,27 @@
       <c r="HB5" s="1"/>
       <c r="HC5" s="1"/>
     </row>
-    <row r="6" spans="1:211" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="30" t="s">
+    <row r="6" spans="1:211" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>1</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>2</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="28">
         <v>1</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="28">
         <v>3</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="29">
         <v>1</v>
       </c>
       <c r="BT6" s="1"/>
@@ -2516,26 +2516,26 @@
       <c r="HC6" s="1"/>
     </row>
     <row r="7" spans="1:211" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="30" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="28">
         <v>3</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="28">
         <v>2</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="28">
         <v>3</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="28">
         <v>2</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="29">
         <v>1</v>
       </c>
       <c r="BT7" s="1"/>
@@ -2679,27 +2679,27 @@
       <c r="HB7" s="1"/>
       <c r="HC7" s="1"/>
     </row>
-    <row r="8" spans="1:211" ht="39" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="30" t="s">
+    <row r="8" spans="1:211" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="28">
         <v>5</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="28">
         <v>3</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="28">
         <v>5</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="28">
         <v>3</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="29">
         <v>1</v>
       </c>
       <c r="BT8" s="1"/>
@@ -2843,27 +2843,27 @@
       <c r="HB8" s="1"/>
       <c r="HC8" s="1"/>
     </row>
-    <row r="9" spans="1:211" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="30" t="s">
+    <row r="9" spans="1:211" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="28">
         <v>8</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="28">
         <v>3</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="28">
         <v>8</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="28">
         <v>3</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="29">
         <v>1</v>
       </c>
       <c r="BT9" s="1"/>
@@ -3007,27 +3007,27 @@
       <c r="HB9" s="1"/>
       <c r="HC9" s="1"/>
     </row>
-    <row r="10" spans="1:211" ht="39" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="30" t="s">
+    <row r="10" spans="1:211" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="28">
         <v>11</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="28">
         <v>8</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="28">
         <v>11</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="28">
         <v>8</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="29">
         <v>1</v>
       </c>
       <c r="BT10" s="1"/>
@@ -3171,27 +3171,27 @@
       <c r="HB10" s="1"/>
       <c r="HC10" s="1"/>
     </row>
-    <row r="11" spans="1:211" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="30" t="s">
+    <row r="11" spans="1:211" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="28">
         <v>19</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="28">
         <v>2</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="28">
         <v>19</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="28">
         <v>2</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="29">
         <v>1</v>
       </c>
       <c r="BT11" s="1"/>
@@ -3335,27 +3335,27 @@
       <c r="HB11" s="1"/>
       <c r="HC11" s="1"/>
     </row>
-    <row r="12" spans="1:211" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="30" t="s">
+    <row r="12" spans="1:211" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="28">
         <v>21</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="28">
         <v>4</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="28">
         <v>21</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="28">
         <v>4</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="29">
         <v>1</v>
       </c>
       <c r="BT12" s="1"/>
@@ -3499,27 +3499,27 @@
       <c r="HB12" s="1"/>
       <c r="HC12" s="1"/>
     </row>
-    <row r="13" spans="1:211" ht="39" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="30" t="s">
+    <row r="13" spans="1:211" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="28">
         <v>25</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="28">
         <v>4</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="28">
         <v>25</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="28">
         <v>4</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="29">
         <v>1</v>
       </c>
       <c r="BT13" s="1"/>
@@ -3663,27 +3663,27 @@
       <c r="HB13" s="1"/>
       <c r="HC13" s="1"/>
     </row>
-    <row r="14" spans="1:211" ht="39" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="30" t="s">
+    <row r="14" spans="1:211" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="28">
         <v>29</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="28">
         <v>3</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="28">
         <v>29</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="28">
         <v>3</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="29">
         <v>1</v>
       </c>
       <c r="BT14" s="1"/>
@@ -3827,27 +3827,27 @@
       <c r="HB14" s="1"/>
       <c r="HC14" s="1"/>
     </row>
-    <row r="15" spans="1:211" ht="39" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="30" t="s">
+    <row r="15" spans="1:211" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="28">
         <v>32</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="28">
         <v>4</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="28">
         <v>32</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="28">
         <v>4</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="29">
         <v>1</v>
       </c>
       <c r="BT15" s="1"/>
@@ -3991,27 +3991,27 @@
       <c r="HB15" s="1"/>
       <c r="HC15" s="1"/>
     </row>
-    <row r="16" spans="1:211" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="30" t="s">
+    <row r="16" spans="1:211" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="28">
         <v>36</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="28">
         <v>5</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="28">
         <v>36</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="29">
         <v>1</v>
       </c>
       <c r="BT16" s="1"/>
@@ -4155,27 +4155,27 @@
       <c r="HB16" s="1"/>
       <c r="HC16" s="1"/>
     </row>
-    <row r="17" spans="2:211" ht="78" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="30" t="s">
+    <row r="17" spans="2:211" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="28">
         <v>41</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="28">
         <v>1</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="28">
         <v>41</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="28">
         <v>1</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="29">
         <v>1</v>
       </c>
       <c r="BT17" s="1"/>
@@ -4319,27 +4319,27 @@
       <c r="HB17" s="1"/>
       <c r="HC17" s="1"/>
     </row>
-    <row r="18" spans="2:211" ht="39" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="30" t="s">
+    <row r="18" spans="2:211" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="28">
         <v>41</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="28">
         <v>7</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="28">
         <v>41</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="28">
         <v>7</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="29">
         <v>1</v>
       </c>
       <c r="BT18" s="1"/>
@@ -4483,27 +4483,27 @@
       <c r="HB18" s="1"/>
       <c r="HC18" s="1"/>
     </row>
-    <row r="19" spans="2:211" ht="78" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="30" t="s">
+    <row r="19" spans="2:211" ht="69" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="28">
         <v>45</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="28">
         <v>6</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="28">
         <v>45</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="28">
         <v>6</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="29">
         <v>1</v>
       </c>
       <c r="BT19" s="1"/>
@@ -4647,27 +4647,27 @@
       <c r="HB19" s="1"/>
       <c r="HC19" s="1"/>
     </row>
-    <row r="20" spans="2:211" ht="39" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="30" t="s">
+    <row r="20" spans="2:211" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="28">
         <v>51</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="28">
         <v>1</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="28">
         <v>51</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="29">
         <v>1</v>
       </c>
       <c r="BT20" s="1"/>
@@ -4811,27 +4811,27 @@
       <c r="HB20" s="1"/>
       <c r="HC20" s="1"/>
     </row>
-    <row r="21" spans="2:211" ht="39" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="30" t="s">
+    <row r="21" spans="2:211" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="28">
         <v>52</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="28">
         <v>5</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="28">
         <v>52</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="28">
         <v>5</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="29">
         <v>1</v>
       </c>
       <c r="BT21" s="1"/>
@@ -4975,19 +4975,19 @@
       <c r="HB21" s="1"/>
       <c r="HC21" s="1"/>
     </row>
-    <row r="22" spans="2:211" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="33" t="s">
+    <row r="22" spans="2:211" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
       <c r="BT22" s="1"/>
       <c r="BU22" s="1"/>
       <c r="BV22" s="1"/>
@@ -5129,24 +5129,25 @@
       <c r="HB22" s="1"/>
       <c r="HC22" s="1"/>
     </row>
-    <row r="23" spans="2:211" ht="39" x14ac:dyDescent="0.3">
-      <c r="F23" s="5" t="s">
+    <row r="23" spans="2:211" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="F23" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="54">
         <v>57</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="54">
+        <v>5</v>
+      </c>
+      <c r="I23" s="54">
+        <v>57</v>
+      </c>
+      <c r="J23" s="54">
+        <v>5</v>
+      </c>
+      <c r="K23" s="52">
         <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>57</v>
-      </c>
-      <c r="J23" s="6">
-        <v>5</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
       </c>
       <c r="BT23" s="1"/>
       <c r="BU23" s="1"/>
@@ -5289,24 +5290,25 @@
       <c r="HB23" s="1"/>
       <c r="HC23" s="1"/>
     </row>
-    <row r="24" spans="2:211" ht="39" x14ac:dyDescent="0.3">
-      <c r="F24" s="5" t="s">
+    <row r="24" spans="2:211" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="F24" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="6">
-        <v>57</v>
-      </c>
-      <c r="H24" s="6">
-        <v>5</v>
-      </c>
-      <c r="I24" s="6">
-        <v>57</v>
-      </c>
-      <c r="J24" s="6">
-        <v>6</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0</v>
+      <c r="G24" s="54">
+        <v>62</v>
+      </c>
+      <c r="H24" s="54">
+        <v>10</v>
+      </c>
+      <c r="I24" s="54">
+        <v>62</v>
+      </c>
+      <c r="J24" s="54">
+        <v>10</v>
+      </c>
+      <c r="K24" s="52">
+        <v>1</v>
       </c>
       <c r="BT24" s="1"/>
       <c r="BU24" s="1"/>
@@ -5449,24 +5451,25 @@
       <c r="HB24" s="1"/>
       <c r="HC24" s="1"/>
     </row>
-    <row r="25" spans="2:211" ht="39" x14ac:dyDescent="0.3">
-      <c r="F25" s="5" t="s">
+    <row r="25" spans="2:211" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="F25" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="6">
-        <v>57</v>
-      </c>
-      <c r="H25" s="6">
-        <v>8</v>
-      </c>
-      <c r="I25" s="6">
-        <v>57</v>
-      </c>
-      <c r="J25" s="6">
-        <v>2</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0.44</v>
+      <c r="G25" s="54">
+        <v>72</v>
+      </c>
+      <c r="H25" s="54">
+        <v>5</v>
+      </c>
+      <c r="I25" s="54">
+        <v>72</v>
+      </c>
+      <c r="J25" s="54">
+        <v>5</v>
+      </c>
+      <c r="K25" s="52">
+        <v>1</v>
       </c>
       <c r="BT25" s="1"/>
       <c r="BU25" s="1"/>
@@ -5609,24 +5612,25 @@
       <c r="HB25" s="1"/>
       <c r="HC25" s="1"/>
     </row>
-    <row r="26" spans="2:211" ht="39" x14ac:dyDescent="0.3">
-      <c r="F26" s="5" t="s">
+    <row r="26" spans="2:211" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="F26" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="6">
-        <v>57</v>
-      </c>
-      <c r="H26" s="6">
-        <v>7</v>
-      </c>
-      <c r="I26" s="6">
-        <v>57</v>
-      </c>
-      <c r="J26" s="6">
-        <v>3</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0</v>
+      <c r="G26" s="54">
+        <v>77</v>
+      </c>
+      <c r="H26" s="54">
+        <v>35</v>
+      </c>
+      <c r="I26" s="54">
+        <v>77</v>
+      </c>
+      <c r="J26" s="54">
+        <v>35</v>
+      </c>
+      <c r="K26" s="52">
+        <v>1</v>
       </c>
       <c r="BT26" s="1"/>
       <c r="BU26" s="1"/>
@@ -5769,24 +5773,25 @@
       <c r="HB26" s="1"/>
       <c r="HC26" s="1"/>
     </row>
-    <row r="27" spans="2:211" ht="58.5" x14ac:dyDescent="0.3">
-      <c r="F27" s="5" t="s">
+    <row r="27" spans="2:211" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="F27" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="6">
-        <v>57</v>
-      </c>
-      <c r="H27" s="6">
-        <v>4</v>
-      </c>
-      <c r="I27" s="6">
-        <v>57</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="G27" s="54">
+        <v>112</v>
+      </c>
+      <c r="H27" s="54">
         <v>8</v>
       </c>
-      <c r="K27" s="7">
-        <v>0.12</v>
+      <c r="I27" s="54">
+        <v>112</v>
+      </c>
+      <c r="J27" s="54">
+        <v>8</v>
+      </c>
+      <c r="K27" s="52">
+        <v>1</v>
       </c>
       <c r="BT27" s="1"/>
       <c r="BU27" s="1"/>
@@ -5929,24 +5934,25 @@
       <c r="HB27" s="1"/>
       <c r="HC27" s="1"/>
     </row>
-    <row r="28" spans="2:211" ht="39" x14ac:dyDescent="0.3">
-      <c r="F28" s="5" t="s">
+    <row r="28" spans="2:211" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="F28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="6">
-        <v>57</v>
-      </c>
-      <c r="H28" s="6">
-        <v>5</v>
-      </c>
-      <c r="I28" s="6">
-        <v>57</v>
-      </c>
-      <c r="J28" s="6">
-        <v>3</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0.05</v>
+      <c r="G28" s="54">
+        <v>120</v>
+      </c>
+      <c r="H28" s="54">
+        <v>40</v>
+      </c>
+      <c r="I28" s="54">
+        <v>120</v>
+      </c>
+      <c r="J28" s="54">
+        <v>40</v>
+      </c>
+      <c r="K28" s="52">
+        <v>1</v>
       </c>
       <c r="BT28" s="1"/>
       <c r="BU28" s="1"/>
@@ -6089,24 +6095,25 @@
       <c r="HB28" s="1"/>
       <c r="HC28" s="1"/>
     </row>
-    <row r="29" spans="2:211" ht="58.5" x14ac:dyDescent="0.3">
-      <c r="F29" s="5" t="s">
+    <row r="29" spans="2:211" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="F29" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="6">
-        <v>57</v>
-      </c>
-      <c r="H29" s="6">
-        <v>8</v>
-      </c>
-      <c r="I29" s="6">
-        <v>57</v>
-      </c>
-      <c r="J29" s="6">
-        <v>5</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0</v>
+      <c r="G29" s="54">
+        <v>160</v>
+      </c>
+      <c r="H29" s="54">
+        <v>15</v>
+      </c>
+      <c r="I29" s="54">
+        <v>160</v>
+      </c>
+      <c r="J29" s="54">
+        <v>15</v>
+      </c>
+      <c r="K29" s="52">
+        <v>1</v>
       </c>
       <c r="BT29" s="1"/>
       <c r="BU29" s="1"/>
@@ -6249,24 +6256,25 @@
       <c r="HB29" s="1"/>
       <c r="HC29" s="1"/>
     </row>
-    <row r="30" spans="2:211" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="F30" s="5" t="s">
+    <row r="30" spans="2:211" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="F30" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="6">
-        <v>57</v>
-      </c>
-      <c r="H30" s="6">
-        <v>28</v>
-      </c>
-      <c r="I30" s="6">
-        <v>57</v>
-      </c>
-      <c r="J30" s="6">
-        <v>30</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0.5</v>
+      <c r="G30" s="54">
+        <v>175</v>
+      </c>
+      <c r="H30" s="54">
+        <v>25</v>
+      </c>
+      <c r="I30" s="54">
+        <v>175</v>
+      </c>
+      <c r="J30" s="54">
+        <v>25</v>
+      </c>
+      <c r="K30" s="52">
+        <v>1</v>
       </c>
       <c r="BT30" s="1"/>
       <c r="BU30" s="1"/>

--- a/documentation/FinalGanttTOM.xlsx
+++ b/documentation/FinalGanttTOM.xlsx
@@ -807,6 +807,15 @@
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -845,15 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1419,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:HC190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1458,27 +1458,27 @@
       <c r="P1" s="36">
         <v>2</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
       <c r="T1" s="37">
         <v>3</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
       <c r="X1" s="38">
         <v>4</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:211" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="17"/>
@@ -1493,66 +1493,66 @@
         <v>1</v>
       </c>
       <c r="N2" s="11"/>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="52"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="49"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="52"/>
       <c r="Y2" s="13"/>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="51"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="54"/>
       <c r="AD2" s="14"/>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="51"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="54"/>
       <c r="AL2" s="15"/>
-      <c r="AM2" s="40" t="s">
+      <c r="AM2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
     </row>
     <row r="3" spans="1:211" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -1579,12 +1579,12 @@
       <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="1:211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="43"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
       <c r="L4" s="33">
         <v>1</v>
       </c>
@@ -5131,22 +5131,22 @@
     </row>
     <row r="23" spans="2:211" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="41">
         <v>57</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="41">
         <v>5</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="41">
         <v>57</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="41">
         <v>5</v>
       </c>
-      <c r="K23" s="52">
+      <c r="K23" s="39">
         <v>1</v>
       </c>
       <c r="BT23" s="1"/>
@@ -5292,22 +5292,22 @@
     </row>
     <row r="24" spans="2:211" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23"/>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="41">
         <v>62</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="41">
         <v>10</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="41">
         <v>62</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="41">
         <v>10</v>
       </c>
-      <c r="K24" s="52">
+      <c r="K24" s="39">
         <v>1</v>
       </c>
       <c r="BT24" s="1"/>
@@ -5453,22 +5453,22 @@
     </row>
     <row r="25" spans="2:211" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="41">
         <v>72</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="41">
         <v>5</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="41">
         <v>72</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="41">
         <v>5</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="39">
         <v>1</v>
       </c>
       <c r="BT25" s="1"/>
@@ -5614,22 +5614,22 @@
     </row>
     <row r="26" spans="2:211" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="41">
         <v>77</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="41">
         <v>35</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="41">
         <v>77</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="41">
         <v>35</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="39">
         <v>1</v>
       </c>
       <c r="BT26" s="1"/>
@@ -5775,22 +5775,22 @@
     </row>
     <row r="27" spans="2:211" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="41">
         <v>112</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="41">
         <v>8</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="41">
         <v>112</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="41">
         <v>8</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="39">
         <v>1</v>
       </c>
       <c r="BT27" s="1"/>
@@ -5936,22 +5936,22 @@
     </row>
     <row r="28" spans="2:211" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="41">
         <v>120</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="41">
         <v>40</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28" s="41">
         <v>120</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="41">
         <v>40</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="39">
         <v>1</v>
       </c>
       <c r="BT28" s="1"/>
@@ -6097,22 +6097,22 @@
     </row>
     <row r="29" spans="2:211" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="54">
+      <c r="G29" s="41">
         <v>160</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="41">
         <v>15</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I29" s="41">
         <v>160</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="41">
         <v>15</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="39">
         <v>1</v>
       </c>
       <c r="BT29" s="1"/>
@@ -6258,22 +6258,22 @@
     </row>
     <row r="30" spans="2:211" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="41">
         <v>175</v>
       </c>
-      <c r="H30" s="54">
-        <v>25</v>
-      </c>
-      <c r="I30" s="54">
+      <c r="H30" s="41">
+        <v>26</v>
+      </c>
+      <c r="I30" s="41">
         <v>175</v>
       </c>
-      <c r="J30" s="54">
-        <v>25</v>
-      </c>
-      <c r="K30" s="52">
+      <c r="J30" s="41">
+        <v>26</v>
+      </c>
+      <c r="K30" s="39">
         <v>1</v>
       </c>
       <c r="BT30" s="1"/>
